--- a/core/utils/docs_proj_items/cadastrodeitens2JARAGUADOSUL.xlsx
+++ b/core/utils/docs_proj_items/cadastrodeitens2JARAGUADOSUL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="44">
   <si>
     <t xml:space="preserve">PROJETO</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t xml:space="preserve">CASACO MOLETOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIT UNIFORME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
 </sst>
 </file>
@@ -727,7 +733,7 @@
   <dimension ref="A1:AF777"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -851,7 +857,9 @@
       <c r="E2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -927,7 +935,9 @@
       <c r="E3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -1003,7 +1013,9 @@
       <c r="E4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -1079,7 +1091,9 @@
       <c r="E5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1155,7 +1169,9 @@
       <c r="E6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -1231,7 +1247,9 @@
       <c r="E7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1326,71 +1344,151 @@
       <c r="AF8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
+      <c r="S9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
+      <c r="AC9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE9" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="AF9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
+      <c r="S10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
+      <c r="AC10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE10" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="AF10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
